--- a/TDB-Projet- DIFS-001 - capture ou referentiel ou avancement ou bilan.xlsx
+++ b/TDB-Projet- DIFS-001 - capture ou referentiel ou avancement ou bilan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Cours/L2/S2/ProjetS4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66CB0DA7-1738-834D-98AA-DF91394F00AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C68641D-A85C-5344-8F7A-45965E3FA74C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1"/>
   </bookViews>
